--- a/hydrogen_comps/H8_chain/H8_0.94/H8_0.94_energies.xlsx
+++ b/hydrogen_comps/H8_chain/H8_0.94/H8_0.94_energies.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0637318979</v>
+        <v>-0.0637318907</v>
       </c>
     </row>
     <row r="3">
